--- a/file_3.xlsx
+++ b/file_3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89681A88-1393-4446-9263-4978DE399A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2C0F3F-992B-4602-A3E6-4450B4344FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>C1</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>c5</t>
   </si>
   <si>
     <t>a</t>
@@ -421,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,157 +433,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="E13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
